--- a/biology/Botanique/Phycocyanine/Phycocyanine.xlsx
+++ b/biology/Botanique/Phycocyanine/Phycocyanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La phycocyanine (du grec phyco signifiant « algue » et cyanine venant de la couleur « cyan », qui est dérivé du grec « kyanos » et signifie bleu-vert) est l'association de protéines de la famille des phycobiliprotéines, et de pigments hydrosolubles de la photosynthèse, les phycocyanobilines. Toutes les phycobiliprotéines sont solubles dans l'eau et ne peuvent donc exister à l'intérieur d'une membrane, contrairement aux complexes protéines-pigments des végétaux supérieurs, (porteurs de caroténoïdes, et de chlorophylles), mais peuvent s'agréger pour former des complexes collecteurs de lumière, nommés phycobilisomes, qui adhèrent à la membrane thylakoïdale. 
 La phycocyanine absorbe les lumières orange et rouge, dans des longueurs d'onde plutôt proches de 620 nm (dépendant de son type spécifique), et émet de la fluorescence à environ 650 nm (dépendant aussi de son type). L'allophycocyanine absorbe et émet à des longueurs d'onde plus élevées que la phycocyanine C ou la phycocyanine R. 
